--- a/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.10.0.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2CA7B-7523-4A1A-844D-17965530059E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016B96D-844B-40A4-BE75-0DE455AF2F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -127,45 +127,12 @@
     <t>relationId</t>
   </si>
   <si>
-    <t>iEMS-Entity-mgmt-Test-1</t>
-  </si>
-  <si>
-    <t>iEMS</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-7</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-2</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-3</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-4</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-18</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>unit, has</t>
-  </si>
-  <si>
-    <t>unit, not_exist_relation</t>
-  </si>
-  <si>
     <t>good request, get all relations</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
-    <t>is_instance_of</t>
-  </si>
-  <si>
     <t>bad request, relationId not exist</t>
   </si>
   <si>
@@ -217,9 +184,6 @@
     <t>ENTITY</t>
   </si>
   <si>
-    <t>iEMS-Entity-mgmt-Test-8</t>
-  </si>
-  <si>
     <t>bad request, input contains strange characters</t>
   </si>
   <si>
@@ -227,6 +191,102 @@
   </si>
   <si>
     <t>label invalid</t>
+  </si>
+  <si>
+    <t>entity does not exist</t>
+  </si>
+  <si>
+    <t>relation does not exist</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>bad request, label is null</t>
+  </si>
+  <si>
+    <t>bad request, properties-metadata_node_type is null</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>testEntity2</t>
+  </si>
+  <si>
+    <t>node type not valid</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-16</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-17</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-18</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-1</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-2</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-3</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-4</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-5</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-19</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-20</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-21</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-13</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-14</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-15</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-10</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-11</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-12</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-6</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-7</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-8</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-9</t>
   </si>
   <si>
     <t>{
@@ -236,7 +296,21 @@
     "additional_prop1" : "value1ForUpdate",
     "additional_prop2" : "value2ForUpdate",
     "metadata_node_type" : "entity",
-    "metadata_node_domain" : "iEMSForUpdate"
+    "metadata_node_domain" : "IOTForUpdate"
+  },
+  "nodeType" : "ENTITY",
+  "connectedRelationNumber" : 0
+}</t>
+  </si>
+  <si>
+    <t>{
+  "id" : "99999",
+  "label" : "testEntity1",
+  "properties" : {
+    "additional_prop1" : "value1ForUpdate",
+    "additional_prop2" : "value2ForUpdate",
+    "metadata_node_type" : "entity",
+    "metadata_node_domain" : "IOTForUpdate"
   },
   "nodeType" : "ENTITY",
   "connectedRelationNumber" : 0
@@ -250,130 +324,56 @@
     "additional_prop1" : "value1ForUpdate",
     "additional_prop2" : "value2ForUpdate",
     "metadata_node_type" : "entity",
-    "metadata_node_domain" : "iEMSForUpdate"
+    "metadata_node_domain" : "IOTForUpdate"
   },
   "nodeType" : "ENTITY",
   "connectedRelationNumber" : 0
 }</t>
   </si>
   <si>
-    <t>{
-  "id" : "99999",
-  "label" : "testEntity1",
-  "properties" : {
-    "additional_prop1" : "value1ForUpdate",
-    "additional_prop2" : "value2ForUpdate",
-    "metadata_node_type" : "entity",
-    "metadata_node_domain" : "iEMSForUpdate"
-  },
-  "nodeType" : "ENTITY",
-  "connectedRelationNumber" : 0
-}</t>
-  </si>
-  <si>
-    <t>entity does not exist</t>
-  </si>
-  <si>
-    <t>relation does not exist</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-5</t>
-  </si>
-  <si>
-    <t>ASC</t>
-  </si>
-  <si>
-    <t>DESC</t>
-  </si>
-  <si>
-    <t>bad request, label is null</t>
-  </si>
-  <si>
-    <t>bad request, properties-metadata_node_type is null</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-6</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-9</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-10</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-11</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-12</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-14</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-13</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-15</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-16</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-19</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-20</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-21</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-22</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-23</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-24</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-25</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-26</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-27</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-28</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-29</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-30</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-31</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-32</t>
-  </si>
-  <si>
-    <t>testEntity2</t>
-  </si>
-  <si>
-    <t>node type not valid</t>
+    <t>iot-Entity-mgmt-Test-29</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-30</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-31</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-32</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-22</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-23</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-24</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-25</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-26</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-27</t>
+  </si>
+  <si>
+    <t>iot-Entity-mgmt-Test-28</t>
+  </si>
+  <si>
+    <t>Connect_To</t>
+  </si>
+  <si>
+    <t>Connect_To, has</t>
+  </si>
+  <si>
+    <t>Connect_To, not_exist_relation</t>
+  </si>
+  <si>
+    <t>Delivery</t>
   </si>
 </sst>
 </file>
@@ -777,25 +777,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="8"/>
+    <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -809,25 +809,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>4</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J2" s="11">
         <v>0</v>
@@ -877,34 +877,34 @@
         <v>100000</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C3" s="9">
         <v>1234</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J3" s="11">
         <v>0</v>
@@ -916,34 +916,34 @@
         <v>103000</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9">
         <v>1234</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J4" s="11">
         <v>0</v>
@@ -955,12 +955,12 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>12</v>
@@ -972,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J5" s="11">
         <v>0</v>
@@ -996,36 +996,36 @@
         <v>103000</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C6" s="9">
         <v>1234</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>103000</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1049,22 +1049,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="13" customWidth="1"/>
-    <col min="5" max="7" width="12.54296875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="13"/>
+    <col min="1" max="2" width="30.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>8</v>
@@ -1087,39 +1087,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="169" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="14">
+        <v>200</v>
+      </c>
+      <c r="F2" s="14">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="14">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F3" s="14">
-        <v>100000</v>
+        <v>103000</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
-        <v>14</v>
+      <c r="D4" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="E4" s="14">
         <v>400</v>
@@ -1128,19 +1149,19 @@
         <v>103000</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="169" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E5" s="14">
         <v>400</v>
@@ -1149,28 +1170,7 @@
         <v>103000</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="169" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="14">
-        <v>400</v>
-      </c>
-      <c r="F6" s="14">
-        <v>103000</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1185,19 +1185,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1243,12 +1243,12 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1264,12 +1264,12 @@
         <v>103000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1285,7 +1285,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1300,22 +1300,22 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1364,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3">
         <v>1234</v>
@@ -1385,12 +1385,12 @@
         <v>100000</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1446,19 +1446,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1469,10 +1469,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1500,19 +1500,19 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>200</v>
@@ -1521,19 +1521,19 @@
         <v>100000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <v>200</v>
@@ -1542,7 +1542,7 @@
         <v>100000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1557,19 +1557,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1595,9 +1595,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1615,12 +1615,12 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1636,12 +1636,12 @@
         <v>103000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1657,7 +1657,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1672,19 +1672,19 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1698,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1726,19 +1726,19 @@
         <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
@@ -1747,19 +1747,19 @@
         <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
@@ -1768,18 +1768,18 @@
         <v>100000</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
@@ -1789,21 +1789,21 @@
         <v>100000</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
@@ -1812,12 +1812,12 @@
         <v>100000</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -1833,18 +1833,18 @@
         <v>100000</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -1854,7 +1854,7 @@
         <v>100000</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1868,20 +1868,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1892,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6">
         <v>108742</v>
@@ -1927,18 +1927,18 @@
         <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6">
         <v>104263</v>
@@ -1950,15 +1950,15 @@
         <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
@@ -1971,15 +1971,15 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
@@ -1992,7 +1992,7 @@
         <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910C88C-0219-40C1-ACB6-EAAA4A6FE971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1BF83E-F107-4973-A5F9-4410760134F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="388">
   <si>
     <t>testEntity1</t>
   </si>
@@ -714,9 +714,6 @@
   </si>
   <si>
     <t>NOT_EXIST</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.CompletionException: org.apache.tinkerpop.gremlin.driver.exception.ResponseException</t>
   </si>
   <si>
     <t>[
@@ -3860,30 +3857,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4278,7 +4275,7 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="21" max="21" width="60.5546875" customWidth="1"/>
     <col min="22" max="22" width="48.21875" customWidth="1"/>
@@ -4286,7 +4283,7 @@
     <col min="28" max="28" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="21:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="21:28">
       <c r="U1" s="9" t="s">
         <v>7</v>
       </c>
@@ -4306,21 +4303,21 @@
         <v>2</v>
       </c>
       <c r="AA1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" s="5" t="s">
+    </row>
+    <row r="2" spans="21:28" ht="409.6">
+      <c r="U2" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="W2" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>35</v>
@@ -4334,15 +4331,15 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="21:28" ht="409.6">
       <c r="U3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="X3" s="5">
         <v>200</v>
@@ -4351,22 +4348,22 @@
         <v>100000</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="21:28" ht="409.6">
+      <c r="U4" s="10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="X4" s="5">
         <v>200</v>
@@ -4375,22 +4372,22 @@
         <v>100000</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA4" s="14"/>
       <c r="AB4" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="21:28" ht="409.6">
       <c r="U5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="W5" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="X5" s="5">
         <v>200</v>
@@ -4399,22 +4396,22 @@
         <v>100000</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="21:28" ht="409.6">
+      <c r="U6" s="10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="6" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U6" s="10" t="s">
+      <c r="V6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="X6" s="5">
         <v>200</v>
@@ -4423,20 +4420,20 @@
         <v>100000</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="21:28" ht="409.6">
       <c r="U7" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="X7" s="5">
         <v>200</v>
@@ -4445,22 +4442,22 @@
         <v>100000</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="21:28" ht="409.6">
+      <c r="U8" s="10" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U8" s="10" t="s">
+      <c r="V8" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>254</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>255</v>
       </c>
       <c r="X8" s="5">
         <v>200</v>
@@ -4469,20 +4466,20 @@
         <v>100000</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="21:28" ht="409.6">
       <c r="U9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="X9" s="5">
         <v>200</v>
@@ -4491,22 +4488,22 @@
         <v>100000</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="21:28" ht="409.6">
       <c r="U10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="W10" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="X10" s="5">
         <v>200</v>
@@ -4515,20 +4512,20 @@
         <v>100000</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="21:28" ht="409.6">
       <c r="U11" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="V11" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="W11" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="X11" s="5">
         <v>200</v>
@@ -4537,20 +4534,20 @@
         <v>100000</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="21:28" ht="409.6">
       <c r="U12" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="V12" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="W12" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="X12" s="5">
         <v>200</v>
@@ -4559,22 +4556,22 @@
         <v>100000</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="21:28" ht="409.6">
+      <c r="U13" s="10" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="13" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U13" s="10" t="s">
+      <c r="V13" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="W13" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="X13" s="5">
         <v>200</v>
@@ -4583,22 +4580,22 @@
         <v>100000</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="21:28" ht="409.6">
+      <c r="U14" s="10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="14" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U14" s="10" t="s">
+      <c r="V14" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="W14" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="X14" s="5">
         <v>200</v>
@@ -4607,22 +4604,22 @@
         <v>100000</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="21:28" ht="409.6">
       <c r="U15" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="V15" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="W15" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="X15" s="5">
         <v>200</v>
@@ -4631,22 +4628,22 @@
         <v>100000</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="21:28" ht="409.6">
       <c r="U16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="V16" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="W16" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="X16" s="5">
         <v>200</v>
@@ -4655,20 +4652,20 @@
         <v>100000</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:28" ht="409.6">
       <c r="U17" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="V17" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="W17" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>284</v>
       </c>
       <c r="X17" s="5">
         <v>200</v>
@@ -4677,20 +4674,20 @@
         <v>100000</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:28" ht="409.6">
       <c r="U18" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="V18" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="W18" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="X18" s="5">
         <v>200</v>
@@ -4699,22 +4696,22 @@
         <v>100000</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="21:28" ht="409.6">
       <c r="U19" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="V19" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="W19" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="X19" s="5">
         <v>200</v>
@@ -4723,22 +4720,22 @@
         <v>100000</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="21:28" ht="409.6">
       <c r="U20" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V20" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="W20" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="X20" s="5">
         <v>200</v>
@@ -4747,22 +4744,22 @@
         <v>100000</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="21:28" ht="409.6">
       <c r="U21" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V21" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="W21" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>296</v>
       </c>
       <c r="X21" s="5">
         <v>200</v>
@@ -4771,22 +4768,22 @@
         <v>100000</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="21:28" ht="409.6">
+      <c r="U22" s="10" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="22" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U22" s="10" t="s">
+      <c r="V22" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="W22" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="X22" s="5">
         <v>200</v>
@@ -4795,22 +4792,22 @@
         <v>100000</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="21:28" ht="409.6">
+      <c r="U23" s="10" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="23" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U23" s="10" t="s">
+      <c r="V23" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="W23" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="X23" s="5">
         <v>200</v>
@@ -4819,22 +4816,22 @@
         <v>100000</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="21:28" ht="409.6">
       <c r="U24" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="V24" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="W24" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="W24" s="20" t="s">
-        <v>307</v>
       </c>
       <c r="X24" s="5">
         <v>200</v>
@@ -4843,21 +4840,21 @@
         <v>100000</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB24" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="21:28" ht="409.6">
+      <c r="U25" s="10" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U25" s="10" t="s">
+      <c r="V25" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="W25" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="W25" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="X25" s="5">
         <v>200</v>
@@ -4866,21 +4863,21 @@
         <v>100000</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="21:28" ht="409.6">
+      <c r="U26" s="10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="26" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="U26" s="10" t="s">
+      <c r="V26" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="W26" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>315</v>
       </c>
       <c r="X26" s="5">
         <v>200</v>
@@ -4889,18 +4886,18 @@
         <v>100000</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="21:28" ht="409.6">
       <c r="U27" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="V27" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="W27" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="X27" s="5">
         <v>200</v>
@@ -4909,18 +4906,18 @@
         <v>100000</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="21:28" ht="409.6">
       <c r="U28" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="V28" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="W28" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="X28" s="5">
         <v>200</v>
@@ -4929,7 +4926,7 @@
         <v>100000</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4948,7 +4945,7 @@
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="32" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" style="5" bestFit="1" customWidth="1"/>
@@ -4963,7 +4960,7 @@
     <col min="11" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -4995,18 +4992,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="111" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="8">
         <v>200</v>
@@ -5023,16 +5020,16 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="111" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8">
         <v>400</v>
@@ -5045,16 +5042,16 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="111" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="8">
         <v>400</v>
@@ -5067,16 +5064,16 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="111" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="8">
         <v>400</v>
@@ -5089,16 +5086,16 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="111" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="8">
         <v>400</v>
@@ -5111,16 +5108,16 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="111" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="8">
         <v>400</v>
@@ -5133,16 +5130,16 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="111" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="8">
         <v>400</v>
@@ -5156,19 +5153,19 @@
       <c r="H8" s="12"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="111" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="8">
         <v>400</v>
@@ -5182,19 +5179,19 @@
       <c r="H9" s="12"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="111" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="8">
         <v>400</v>
@@ -5208,19 +5205,19 @@
       <c r="H10" s="12"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="111" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="8">
         <v>400</v>
@@ -5234,19 +5231,19 @@
       <c r="H11" s="12"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="111" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="8">
         <v>400</v>
@@ -5263,16 +5260,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="111" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="8">
         <v>400</v>
@@ -5289,16 +5286,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="111" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="8">
         <v>400</v>
@@ -5312,19 +5309,19 @@
       <c r="H14" s="12"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="111" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="8">
         <v>400</v>
@@ -5341,16 +5338,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="111" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="8">
         <v>400</v>
@@ -5367,16 +5364,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="111" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="8">
         <v>400</v>
@@ -5393,16 +5390,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="111" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="8">
         <v>400</v>
@@ -5419,16 +5416,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="111" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="8">
         <v>400</v>
@@ -5445,16 +5442,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="8">
         <v>400</v>
@@ -5471,16 +5468,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="111" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="8">
         <v>400</v>
@@ -5497,16 +5494,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="111" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="8">
         <v>400</v>
@@ -5523,16 +5520,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="111" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="8">
         <v>400</v>
@@ -5549,16 +5546,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="111" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="8">
         <v>400</v>
@@ -5572,19 +5569,19 @@
       <c r="H24" s="12"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="111" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="8">
         <v>200</v>
@@ -5596,7 +5593,7 @@
         <v>16</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
@@ -5612,11 +5609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F5FE0E-8788-403D-8502-6CD26A71119B}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.77734375" style="14" bestFit="1" customWidth="1"/>
@@ -5632,7 +5629,7 @@
     <col min="12" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -5667,21 +5664,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="106.2" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="F2" s="12">
         <v>200</v>
@@ -5698,7 +5695,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="106.2" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
@@ -5721,17 +5718,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="106.2" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>85</v>
@@ -5748,17 +5745,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="106.2" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>85</v>
@@ -5767,13 +5764,15 @@
         <v>86</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="106.2" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -5782,10 +5781,10 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="F6" s="12">
         <v>200</v>
@@ -5814,10 +5813,10 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="32" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="14" bestFit="1" customWidth="1"/>
@@ -5831,7 +5830,7 @@
     <col min="10" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="303.60000000000002">
       <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
@@ -5868,10 +5867,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>71</v>
@@ -5889,7 +5888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.6">
       <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
@@ -5909,10 +5908,10 @@
         <v>101400</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>101400</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5950,7 +5949,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -5961,7 +5960,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>77</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -6039,7 +6038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>78</v>
       </c>
@@ -6071,10 +6070,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" style="18" bestFit="1" customWidth="1"/>
@@ -6088,7 +6087,7 @@
     <col min="10" max="16384" width="8.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="148.19999999999999" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -6125,10 +6124,10 @@
         <v>82</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>71</v>
@@ -6146,7 +6145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
@@ -6155,10 +6154,10 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>58</v>
@@ -6173,7 +6172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
@@ -6186,17 +6185,17 @@
       <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10">
-        <v>400</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G4" s="12">
+        <v>200</v>
+      </c>
+      <c r="H4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27.6">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
@@ -6207,7 +6206,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="10">
         <v>200</v>
@@ -6230,11 +6229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F350B3-2BA8-4FFC-BD4B-B88814906262}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="72.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.5546875" customWidth="1"/>
@@ -6242,7 +6241,7 @@
     <col min="8" max="8" width="109.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.6">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6253,10 +6252,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>4</v>
@@ -6268,21 +6267,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>35</v>
@@ -6309,7 +6308,7 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54.33203125" customWidth="1"/>
     <col min="2" max="2" width="78.88671875" customWidth="1"/>
@@ -6318,7 +6317,7 @@
     <col min="8" max="8" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6338,21 +6337,21 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>35</v>
@@ -6366,15 +6365,15 @@
       <c r="G2" s="19"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.6">
       <c r="A3" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -6383,21 +6382,21 @@
         <v>100000</v>
       </c>
       <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" t="s">
         <v>237</v>
       </c>
-      <c r="H3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="409.6">
       <c r="A4" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -6406,21 +6405,21 @@
         <v>100000</v>
       </c>
       <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" t="s">
         <v>237</v>
       </c>
-      <c r="H4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="207" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="216">
       <c r="A5" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -6429,21 +6428,21 @@
         <v>100000</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="244.8">
+      <c r="A6" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="234.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -6452,21 +6451,21 @@
         <v>100000</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.6">
       <c r="A7" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>351</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -6475,21 +6474,21 @@
         <v>100000</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.6">
       <c r="A8" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -6498,18 +6497,18 @@
         <v>100000</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.6">
       <c r="A9" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -6518,18 +6517,18 @@
         <v>100000</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.6">
       <c r="A10" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -6538,21 +6537,21 @@
         <v>100000</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -6561,21 +6560,21 @@
         <v>100000</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="409.6">
       <c r="A12" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -6584,21 +6583,21 @@
         <v>100000</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -6607,21 +6606,21 @@
         <v>100000</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="409.6">
       <c r="A14" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -6630,18 +6629,18 @@
         <v>100000</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -6650,18 +6649,18 @@
         <v>100000</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -6670,21 +6669,21 @@
         <v>100000</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -6693,21 +6692,21 @@
         <v>100000</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -6716,21 +6715,21 @@
         <v>100000</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -6739,21 +6738,21 @@
         <v>100000</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="409.6">
+      <c r="A20" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B20" t="s">
-        <v>337</v>
-      </c>
       <c r="C20" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -6762,21 +6761,21 @@
         <v>100000</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -6785,21 +6784,21 @@
         <v>100000</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -6808,21 +6807,21 @@
         <v>100000</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="207" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="216">
       <c r="A23" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>369</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -6831,7 +6830,7 @@
         <v>100000</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
         <v>109</v>
@@ -6853,7 +6852,7 @@
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -6867,7 +6866,7 @@
     <col min="10" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="106.2" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -6921,12 +6920,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="106.2" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>96</v>
@@ -6942,12 +6941,12 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="106.2" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>88</v>
@@ -6963,12 +6962,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="106.2" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>97</v>
@@ -6984,7 +6983,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="106.2" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -7009,7 +7008,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="106.2" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="106.2" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -7059,12 +7058,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="106.2" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>99</v>
@@ -7084,12 +7083,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="106.2" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>105</v>
@@ -7109,7 +7108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="106.2" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>93</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="106.2" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>110</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="106.2" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>111</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="106.2" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>112</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="106.2" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>117</v>
       </c>
@@ -7231,10 +7230,10 @@
       <c r="G15" s="12"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="106.2" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>118</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="106.2" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>119</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="106.2" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>120</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="106.2" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>121</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="106.2" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>122</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -7370,11 +7369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B97966-D445-41D3-A12C-5E1768A05176}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -7389,7 +7388,7 @@
     <col min="11" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="106.2" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -7449,7 +7448,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="106.2" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
@@ -7471,7 +7470,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="106.2" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="106.2" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -7515,13 +7514,15 @@
         <v>86</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="106.2" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -7529,10 +7530,10 @@
         <v>137</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -7561,10 +7562,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="5" bestFit="1" customWidth="1"/>
@@ -7577,7 +7578,7 @@
     <col min="9" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="165.6">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -7648,10 +7649,10 @@
         <v>101400</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>101400</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -7688,7 +7689,7 @@
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -7699,7 +7700,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -7777,7 +7778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -7812,7 +7813,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
@@ -7823,7 +7824,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>46</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
@@ -7883,7 +7884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -7908,11 +7909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.109375" style="5" bestFit="1" customWidth="1"/>
@@ -7925,7 +7926,7 @@
     <col min="9" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7951,7 +7952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="165.6">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="10">
         <v>200</v>
@@ -7977,7 +7978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="303.60000000000002">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>57</v>
@@ -8003,7 +8004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -8016,16 +8017,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="10">
-        <v>400</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>86</v>
+        <v>200</v>
+      </c>
+      <c r="G4" s="10">
+        <v>100000</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
         <v>55</v>
       </c>
@@ -8035,7 +8036,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="10">
         <v>200</v>

--- a/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1BF83E-F107-4973-A5F9-4410760134F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E6277C-8881-4975-BC40-1F2EA53E83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-14560" windowWidth="38620" windowHeight="21220" tabRatio="800" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="deleteEntities" sheetId="4" r:id="rId9"/>
     <sheet name="createRelations" sheetId="19" r:id="rId10"/>
     <sheet name="updateRelations" sheetId="20" r:id="rId11"/>
-    <sheet name="getRelationById" sheetId="7" r:id="rId12"/>
-    <sheet name="getRelations" sheetId="6" r:id="rId13"/>
-    <sheet name="deleteRelations" sheetId="16" r:id="rId14"/>
+    <sheet name="listGraphNames" sheetId="24" r:id="rId12"/>
+    <sheet name="getRelationById" sheetId="7" r:id="rId13"/>
+    <sheet name="getRelations" sheetId="6" r:id="rId14"/>
+    <sheet name="deleteRelations" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="392">
   <si>
     <t>testEntity1</t>
   </si>
@@ -3852,35 +3853,51 @@
     <t>snc-entityMgmt-publishCheck-update-Test-22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>iot-lpg-list-graph-names</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list all graph names</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ "janusgraph_iot_demo_dev_kg",   "janusgraph_iot_demo_dev_instance_kg"]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3933,7 +3950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3987,6 +4004,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4275,7 +4295,7 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="21" width="60.5546875" customWidth="1"/>
     <col min="22" max="22" width="48.21875" customWidth="1"/>
@@ -4283,7 +4303,7 @@
     <col min="28" max="28" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="21:28">
+    <row r="1" spans="21:28" x14ac:dyDescent="0.25">
       <c r="U1" s="9" t="s">
         <v>7</v>
       </c>
@@ -4309,7 +4329,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="21:28" ht="409.6">
+    <row r="2" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U2" s="10" t="s">
         <v>231</v>
       </c>
@@ -4331,7 +4351,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="21:28" ht="409.6">
+    <row r="3" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U3" s="10" t="s">
         <v>233</v>
       </c>
@@ -4355,7 +4375,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="21:28" ht="409.6">
+    <row r="4" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U4" s="10" t="s">
         <v>238</v>
       </c>
@@ -4379,7 +4399,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="21:28" ht="409.6">
+    <row r="5" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U5" s="10" t="s">
         <v>241</v>
       </c>
@@ -4403,7 +4423,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="21:28" ht="409.6">
+    <row r="6" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U6" s="10" t="s">
         <v>245</v>
       </c>
@@ -4425,7 +4445,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="21:28" ht="409.6">
+    <row r="7" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U7" s="10" t="s">
         <v>248</v>
       </c>
@@ -4449,7 +4469,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="21:28" ht="409.6">
+    <row r="8" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U8" s="10" t="s">
         <v>252</v>
       </c>
@@ -4471,7 +4491,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="21:28" ht="409.6">
+    <row r="9" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U9" s="10" t="s">
         <v>255</v>
       </c>
@@ -4495,7 +4515,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="21:28" ht="409.6">
+    <row r="10" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U10" s="10" t="s">
         <v>258</v>
       </c>
@@ -4517,7 +4537,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="21:28" ht="409.6">
+    <row r="11" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U11" s="10" t="s">
         <v>261</v>
       </c>
@@ -4539,7 +4559,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="21:28" ht="409.6">
+    <row r="12" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U12" s="10" t="s">
         <v>264</v>
       </c>
@@ -4563,7 +4583,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="21:28" ht="409.6">
+    <row r="13" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U13" s="10" t="s">
         <v>268</v>
       </c>
@@ -4587,7 +4607,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="21:28" ht="409.6">
+    <row r="14" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U14" s="10" t="s">
         <v>272</v>
       </c>
@@ -4611,7 +4631,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="21:28" ht="409.6">
+    <row r="15" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U15" s="10" t="s">
         <v>275</v>
       </c>
@@ -4635,7 +4655,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="21:28" ht="409.6">
+    <row r="16" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U16" s="10" t="s">
         <v>278</v>
       </c>
@@ -4657,7 +4677,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="21:28" ht="409.6">
+    <row r="17" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U17" s="10" t="s">
         <v>281</v>
       </c>
@@ -4679,7 +4699,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="21:28" ht="409.6">
+    <row r="18" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U18" s="10" t="s">
         <v>284</v>
       </c>
@@ -4703,7 +4723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="21:28" ht="409.6">
+    <row r="19" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U19" s="10" t="s">
         <v>287</v>
       </c>
@@ -4727,7 +4747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="21:28" ht="409.6">
+    <row r="20" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U20" s="10" t="s">
         <v>290</v>
       </c>
@@ -4751,7 +4771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="21:28" ht="409.6">
+    <row r="21" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U21" s="10" t="s">
         <v>293</v>
       </c>
@@ -4775,7 +4795,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="21:28" ht="409.6">
+    <row r="22" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U22" s="10" t="s">
         <v>297</v>
       </c>
@@ -4799,7 +4819,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="21:28" ht="409.6">
+    <row r="23" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U23" s="10" t="s">
         <v>301</v>
       </c>
@@ -4823,7 +4843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="21:28" ht="409.6">
+    <row r="24" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U24" s="10" t="s">
         <v>304</v>
       </c>
@@ -4846,7 +4866,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="21:28" ht="409.6">
+    <row r="25" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U25" s="10" t="s">
         <v>308</v>
       </c>
@@ -4869,7 +4889,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="21:28" ht="409.6">
+    <row r="26" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U26" s="10" t="s">
         <v>312</v>
       </c>
@@ -4889,7 +4909,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="21:28" ht="409.6">
+    <row r="27" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U27" s="10" t="s">
         <v>315</v>
       </c>
@@ -4909,7 +4929,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="21:28" ht="409.6">
+    <row r="28" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U28" s="10" t="s">
         <v>318</v>
       </c>
@@ -4945,7 +4965,7 @@
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" style="5" bestFit="1" customWidth="1"/>
@@ -4960,7 +4980,7 @@
     <col min="11" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -4992,7 +5012,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="111" customHeight="1">
+    <row r="2" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +5040,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="111" customHeight="1">
+    <row r="3" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -5042,7 +5062,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="111" customHeight="1">
+    <row r="4" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -5064,7 +5084,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="111" customHeight="1">
+    <row r="5" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -5086,7 +5106,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="111" customHeight="1">
+    <row r="6" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -5108,7 +5128,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="111" customHeight="1">
+    <row r="7" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -5130,7 +5150,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="111" customHeight="1">
+    <row r="8" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -5156,7 +5176,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="111" customHeight="1">
+    <row r="9" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -5182,7 +5202,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="111" customHeight="1">
+    <row r="10" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -5208,7 +5228,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="111" customHeight="1">
+    <row r="11" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>153</v>
       </c>
@@ -5234,7 +5254,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="111" customHeight="1">
+    <row r="12" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>154</v>
       </c>
@@ -5260,7 +5280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="111" customHeight="1">
+    <row r="13" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>155</v>
       </c>
@@ -5286,7 +5306,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="111" customHeight="1">
+    <row r="14" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>156</v>
       </c>
@@ -5312,7 +5332,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="111" customHeight="1">
+    <row r="15" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>157</v>
       </c>
@@ -5338,7 +5358,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="111" customHeight="1">
+    <row r="16" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>173</v>
       </c>
@@ -5364,7 +5384,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="111" customHeight="1">
+    <row r="17" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>174</v>
       </c>
@@ -5390,7 +5410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="111" customHeight="1">
+    <row r="18" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>183</v>
       </c>
@@ -5416,7 +5436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="111" customHeight="1">
+    <row r="19" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>184</v>
       </c>
@@ -5442,7 +5462,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="111" customHeight="1">
+    <row r="20" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>185</v>
       </c>
@@ -5468,7 +5488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="111" customHeight="1">
+    <row r="21" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>186</v>
       </c>
@@ -5494,7 +5514,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="111" customHeight="1">
+    <row r="22" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>187</v>
       </c>
@@ -5520,7 +5540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="111" customHeight="1">
+    <row r="23" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>191</v>
       </c>
@@ -5546,7 +5566,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="111" customHeight="1">
+    <row r="24" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>200</v>
       </c>
@@ -5572,7 +5592,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="111" customHeight="1">
+    <row r="25" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>207</v>
       </c>
@@ -5609,11 +5629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F5FE0E-8788-403D-8502-6CD26A71119B}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.77734375" style="14" bestFit="1" customWidth="1"/>
@@ -5629,7 +5649,7 @@
     <col min="12" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -5664,7 +5684,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="106.2" customHeight="1">
+    <row r="2" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -5695,7 +5715,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="106.2" customHeight="1">
+    <row r="3" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
@@ -5718,7 +5738,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="106.2" customHeight="1">
+    <row r="4" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -5745,7 +5765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="106.2" customHeight="1">
+    <row r="5" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -5772,7 +5792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="106.2" customHeight="1">
+    <row r="6" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -5809,6 +5829,68 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23BC73A-A0BF-4177-B9E9-728F3C997D3D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5816,7 +5898,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="14" bestFit="1" customWidth="1"/>
@@ -5830,7 +5912,7 @@
     <col min="10" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -5859,7 +5941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="303.60000000000002">
+    <row r="2" spans="1:9" ht="316.8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
@@ -5888,7 +5970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.6">
+    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
@@ -5911,7 +5993,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.6">
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
@@ -5941,7 +6023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -5949,7 +6031,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -5960,7 +6042,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -5980,7 +6062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
@@ -5998,7 +6080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
@@ -6018,7 +6100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>77</v>
       </c>
@@ -6038,7 +6120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>78</v>
       </c>
@@ -6065,7 +6147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3E9BB9-23BC-452F-AE17-4472AC4F82DB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6073,7 +6155,7 @@
       <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" style="18" bestFit="1" customWidth="1"/>
@@ -6087,7 +6169,7 @@
     <col min="10" max="16384" width="8.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -6116,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="148.19999999999999" customHeight="1">
+    <row r="2" spans="1:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -6145,7 +6227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="148.19999999999999" customHeight="1">
+    <row r="3" spans="1:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
@@ -6172,7 +6254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.6">
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
@@ -6195,7 +6277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.6">
+    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
@@ -6233,7 +6315,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="72.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.5546875" customWidth="1"/>
@@ -6241,7 +6323,7 @@
     <col min="8" max="8" width="109.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.6">
+    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6267,7 +6349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6">
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>324</v>
       </c>
@@ -6308,7 +6390,7 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.33203125" customWidth="1"/>
     <col min="2" max="2" width="78.88671875" customWidth="1"/>
@@ -6317,7 +6399,7 @@
     <col min="8" max="8" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6343,7 +6425,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6">
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>328</v>
       </c>
@@ -6365,7 +6447,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6">
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>341</v>
       </c>
@@ -6388,7 +6470,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6">
+    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>343</v>
       </c>
@@ -6411,7 +6493,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="216">
+    <row r="5" spans="1:8" ht="207" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>369</v>
       </c>
@@ -6434,7 +6516,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="244.8">
+    <row r="6" spans="1:8" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>370</v>
       </c>
@@ -6457,7 +6539,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6">
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>371</v>
       </c>
@@ -6480,7 +6562,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6">
+    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>372</v>
       </c>
@@ -6500,7 +6582,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6">
+    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>373</v>
       </c>
@@ -6520,7 +6602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6">
+    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>374</v>
       </c>
@@ -6543,7 +6625,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6">
+    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>375</v>
       </c>
@@ -6566,7 +6648,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.6">
+    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>376</v>
       </c>
@@ -6589,7 +6671,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="409.6">
+    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>377</v>
       </c>
@@ -6612,7 +6694,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6">
+    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>378</v>
       </c>
@@ -6632,7 +6714,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409.6">
+    <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>379</v>
       </c>
@@ -6652,7 +6734,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="409.6">
+    <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>380</v>
       </c>
@@ -6675,7 +6757,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="409.6">
+    <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>381</v>
       </c>
@@ -6698,7 +6780,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="409.6">
+    <row r="18" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>382</v>
       </c>
@@ -6721,7 +6803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="409.6">
+    <row r="19" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>383</v>
       </c>
@@ -6744,7 +6826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409.6">
+    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>384</v>
       </c>
@@ -6767,7 +6849,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="409.6">
+    <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>385</v>
       </c>
@@ -6790,7 +6872,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="409.6">
+    <row r="22" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>386</v>
       </c>
@@ -6813,7 +6895,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="216">
+    <row r="23" spans="1:8" ht="207" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>387</v>
       </c>
@@ -6852,7 +6934,7 @@
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -6866,7 +6948,7 @@
     <col min="10" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6895,7 +6977,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="106.2" customHeight="1">
+    <row r="2" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -6920,7 +7002,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="106.2" customHeight="1">
+    <row r="3" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -6941,7 +7023,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="106.2" customHeight="1">
+    <row r="4" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -6962,7 +7044,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="106.2" customHeight="1">
+    <row r="5" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6983,7 +7065,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="106.2" customHeight="1">
+    <row r="6" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -7008,7 +7090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="106.2" customHeight="1">
+    <row r="7" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -7033,7 +7115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="106.2" customHeight="1">
+    <row r="8" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -7058,7 +7140,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="106.2" customHeight="1">
+    <row r="9" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>91</v>
       </c>
@@ -7083,7 +7165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.2" customHeight="1">
+    <row r="10" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>92</v>
       </c>
@@ -7108,7 +7190,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="106.2" customHeight="1">
+    <row r="11" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>93</v>
       </c>
@@ -7133,7 +7215,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="106.2" customHeight="1">
+    <row r="12" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>110</v>
       </c>
@@ -7158,7 +7240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="106.2" customHeight="1">
+    <row r="13" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>111</v>
       </c>
@@ -7183,7 +7265,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="106.2" customHeight="1">
+    <row r="14" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>112</v>
       </c>
@@ -7208,7 +7290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="106.2" customHeight="1">
+    <row r="15" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>117</v>
       </c>
@@ -7233,7 +7315,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="106.2" customHeight="1">
+    <row r="16" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>118</v>
       </c>
@@ -7258,7 +7340,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="106.2" customHeight="1">
+    <row r="17" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>119</v>
       </c>
@@ -7283,7 +7365,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="106.2" customHeight="1">
+    <row r="18" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>120</v>
       </c>
@@ -7308,7 +7390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="106.2" customHeight="1">
+    <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>121</v>
       </c>
@@ -7333,7 +7415,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="106.2" customHeight="1">
+    <row r="20" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>122</v>
       </c>
@@ -7373,7 +7455,7 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -7388,7 +7470,7 @@
     <col min="11" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7420,7 +7502,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="106.2" customHeight="1">
+    <row r="2" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -7448,7 +7530,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="106.2" customHeight="1">
+    <row r="3" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
@@ -7470,7 +7552,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="106.2" customHeight="1">
+    <row r="4" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -7496,7 +7578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="106.2" customHeight="1">
+    <row r="5" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -7522,7 +7604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="106.2" customHeight="1">
+    <row r="6" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -7565,7 +7647,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="5" bestFit="1" customWidth="1"/>
@@ -7578,7 +7660,7 @@
     <col min="9" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7604,7 +7686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="165.6">
+    <row r="2" spans="1:8" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -7630,7 +7712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -7652,7 +7734,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -7686,10 +7768,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -7700,7 +7782,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7720,7 +7802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
@@ -7738,7 +7820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -7758,7 +7840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -7778,7 +7860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -7813,7 +7895,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
@@ -7824,7 +7906,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7844,7 +7926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>46</v>
       </c>
@@ -7864,7 +7946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
@@ -7884,7 +7966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -7913,7 +7995,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.109375" style="5" bestFit="1" customWidth="1"/>
@@ -7926,7 +8008,7 @@
     <col min="9" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7952,7 +8034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="165.6">
+    <row r="2" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -7978,7 +8060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="303.60000000000002">
+    <row r="3" spans="1:8" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -8004,7 +8086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -8026,7 +8108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>55</v>
       </c>

--- a/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E6277C-8881-4975-BC40-1F2EA53E83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D52AC3-47FE-4715-9308-1DFB3ADD2B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-14560" windowWidth="38620" windowHeight="21220" tabRatio="800" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -24,10 +24,12 @@
     <sheet name="deleteEntities" sheetId="4" r:id="rId9"/>
     <sheet name="createRelations" sheetId="19" r:id="rId10"/>
     <sheet name="updateRelations" sheetId="20" r:id="rId11"/>
-    <sheet name="listGraphNames" sheetId="24" r:id="rId12"/>
-    <sheet name="getRelationById" sheetId="7" r:id="rId13"/>
-    <sheet name="getRelations" sheetId="6" r:id="rId14"/>
-    <sheet name="deleteRelations" sheetId="16" r:id="rId15"/>
+    <sheet name="getRelationById" sheetId="7" r:id="rId12"/>
+    <sheet name="getRelations" sheetId="6" r:id="rId13"/>
+    <sheet name="deleteRelations" sheetId="16" r:id="rId14"/>
+    <sheet name="listGraphNames" sheetId="24" r:id="rId15"/>
+    <sheet name="createInstanceGraph" sheetId="25" r:id="rId16"/>
+    <sheet name="generateKg" sheetId="26" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="403">
   <si>
     <t>testEntity1</t>
   </si>
@@ -3862,11 +3864,60 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>response</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ "janusgraph_iot_demo_dev_kg",   "janusgraph_iot_demo_dev_instance_kg"]</t>
+    <t>iot-lpg-create-instance-graph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>create instance graph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test6761</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>responseData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-lpg-generate-kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entityLabels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdl_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphql</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    sdl_b (cond: "", authInfo: "", order: "") {
+        id
+        hobby
+    }
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>janusgraph_iot_demo_dev_kg,test6761,janusgraph_iot_demo_dev_instance_kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>janusgraph_iot_demo_dev_kg,janusgraph_iot_demo_dev_instance_kg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5829,68 +5880,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23BC73A-A0BF-4177-B9E9-728F3C997D3D}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6023,7 +6012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -6147,7 +6136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3E9BB9-23BC-452F-AE17-4472AC4F82DB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6302,6 +6291,213 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23BC73A-A0BF-4177-B9E9-728F3C997D3D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E34F12-E0EE-4BEF-A622-8CC26A6B72AF}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC30DF-967B-4F8A-8865-54A6D8527064}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="50.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D52AC3-47FE-4715-9308-1DFB3ADD2B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33859A-1368-4E6E-B54A-125592061B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="404">
   <si>
     <t>testEntity1</t>
   </si>
@@ -3918,6 +3918,10 @@
   </si>
   <si>
     <t>janusgraph_iot_demo_dev_kg,janusgraph_iot_demo_dev_instance_kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceNum</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6300,7 +6304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23BC73A-A0BF-4177-B9E9-728F3C997D3D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6427,10 +6431,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC30DF-967B-4F8A-8865-54A6D8527064}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6438,13 +6442,13 @@
     <col min="1" max="1" width="28.5546875" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="50.44140625" customWidth="1"/>
+    <col min="4" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -6461,16 +6465,19 @@
         <v>399</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>395</v>
       </c>
@@ -6486,13 +6493,16 @@
       <c r="E2" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="21">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>100000</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33859A-1368-4E6E-B54A-125592061B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786478D9-3B28-46B6-9856-0A58AFAEECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="listGraphNames" sheetId="24" r:id="rId15"/>
     <sheet name="createInstanceGraph" sheetId="25" r:id="rId16"/>
     <sheet name="generateKg" sheetId="26" r:id="rId17"/>
+    <sheet name="generateInstanceKg" sheetId="27" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="408">
   <si>
     <t>testEntity1</t>
   </si>
@@ -3922,6 +3923,35 @@
   </si>
   <si>
     <t>instanceNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-lpg-generate-kg2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate kg though kafka message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafkaData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "context_id": "testkafka",
+    "graphql_count": "2",
+    "graphql_id": "1",
+    "graphql_id_total_count": 255,
+    "graphql_id_current_count": 200,
+    "cycle": "3",
+    "type": "Jena",
+    "data": {
+        "sdl_b": [
+{             "hobby": "sport3",             "id": "3"         }
+]
+    }
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6433,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC30DF-967B-4F8A-8865-54A6D8527064}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6510,6 +6540,73 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA47046-36CA-46E3-A0FF-365D1D7DA362}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-entity-management-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786478D9-3B28-46B6-9856-0A58AFAEECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A5EBB2-7C46-405B-BA0D-5827E04843AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3914,14 +3914,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>janusgraph_iot_demo_dev_kg,test6761,janusgraph_iot_demo_dev_instance_kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>janusgraph_iot_demo_dev_kg,janusgraph_iot_demo_dev_instance_kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>instanceNum</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3938,8 +3930,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>janusgraph_iot_demo_test_kg,janusgraph_iot_demo_test_instance_kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>janusgraph_iot_demo_test_kg,test6761,janusgraph_iot_demo_test_instance_kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-    "context_id": "testkafka",
+    "context_id": "test6761",
     "graphql_count": "2",
     "graphql_id": "1",
     "graphql_id_total_count": 255,
@@ -6335,7 +6335,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6373,7 +6373,7 @@
         <v>389</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D2" s="2">
         <v>200</v>
@@ -6441,7 +6441,7 @@
         <v>393</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2">
         <v>200</v>
@@ -6464,7 +6464,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6495,7 +6495,7 @@
         <v>399</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -6548,7 +6548,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6566,10 +6566,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -6583,10 +6583,10 @@
     </row>
     <row r="2" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>407</v>
